--- a/AzentioAutomationFramework_FMS/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t>Password</t>
   </si>
@@ -170,6 +170,96 @@
   </si>
   <si>
     <t>SADS_User2</t>
+  </si>
+  <si>
+    <t>AJITH</t>
+  </si>
+  <si>
+    <t>SANKAR</t>
+  </si>
+  <si>
+    <t>JAY</t>
+  </si>
+  <si>
+    <t>SNEHA</t>
+  </si>
+  <si>
+    <t>KOUSALYA</t>
+  </si>
+  <si>
+    <t>ARUL</t>
+  </si>
+  <si>
+    <t>PRIYANKA</t>
+  </si>
+  <si>
+    <t>RAJAT</t>
+  </si>
+  <si>
+    <t>VIJAYK</t>
+  </si>
+  <si>
+    <t>GOWTHAM</t>
+  </si>
+  <si>
+    <t>FMS_User3</t>
+  </si>
+  <si>
+    <t>FMS_User4</t>
+  </si>
+  <si>
+    <t>FMS_User5</t>
+  </si>
+  <si>
+    <t>FMS_User6</t>
+  </si>
+  <si>
+    <t>FMS_User7</t>
+  </si>
+  <si>
+    <t>FMS_User8</t>
+  </si>
+  <si>
+    <t>FMS_User9</t>
+  </si>
+  <si>
+    <t>FMS_User10</t>
+  </si>
+  <si>
+    <t>FMS_User11</t>
+  </si>
+  <si>
+    <t>FMS_User12</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser3</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser4</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser5</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser6</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser7</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser8</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser9</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser10</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser11</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser12</t>
   </si>
 </sst>
 </file>
@@ -762,7 +852,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1043,15 +1133,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
@@ -1110,6 +1200,176 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1">
+        <v>321</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1">
+        <v>321</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1">
+        <v>321</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>321</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1">
+        <v>321</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1">
+        <v>321</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1">
+        <v>321</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1">
+        <v>321</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1">
+        <v>321</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1">
+        <v>321</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="1.045275590551181" bottom="1.045275590551181" header="0.84842519685039375" footer="0.84842519685039375"/>
   <pageSetup orientation="portrait"/>
@@ -1118,15 +1378,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
@@ -1185,6 +1445,176 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1">
+        <v>321</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1">
+        <v>321</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1">
+        <v>321</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>321</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1">
+        <v>321</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1">
+        <v>321</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1">
+        <v>321</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1">
+        <v>321</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1">
+        <v>321</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1">
+        <v>321</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="1.045275590551181" bottom="1.045275590551181" header="0.84842519685039375" footer="0.84842519685039375"/>
   <pageSetup orientation="portrait"/>
@@ -1195,7 +1625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1251,7 +1681,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40" defaultRowHeight="15"/>
